--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>res_c1</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>_uuid</t>
+  </si>
+  <si>
+    <t>cri_p2_c3</t>
   </si>
   <si>
     <t>Alcaldia Local De Antonio Narino</t>
@@ -926,13 +929,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS71"/>
+  <dimension ref="A1:AT71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,8 +1071,11 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:46">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1203,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:46">
       <c r="A3">
         <v>42.40000000000001</v>
       </c>
@@ -1226,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1340,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:46">
       <c r="A4">
         <v>39.88</v>
       </c>
@@ -1363,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1477,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:46">
       <c r="A5">
         <v>46.88</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1614,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:46">
       <c r="A6">
         <v>23.2</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1751,10 +1757,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:46">
       <c r="A7">
         <v>13</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1888,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:46">
       <c r="A8">
         <v>37.8</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2025,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:46">
       <c r="A9">
         <v>28.4</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2162,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:46">
       <c r="A10">
         <v>32.6</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2299,10 +2305,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:46">
       <c r="A11">
         <v>26.4</v>
       </c>
@@ -2322,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2436,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:46">
       <c r="A12">
         <v>36.8</v>
       </c>
@@ -2459,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2573,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:46">
       <c r="A13">
         <v>24.2</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2710,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:46">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2847,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:46">
       <c r="A15">
         <v>34</v>
       </c>
@@ -2870,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2984,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:46">
       <c r="A16">
         <v>47.2</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3121,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:45">
@@ -3144,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3258,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -3281,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3395,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:45">
@@ -3418,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3532,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:45">
@@ -3555,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3669,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:45">
@@ -3692,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3806,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3829,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3943,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -3966,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -4080,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:45">
@@ -4094,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -4208,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -4231,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -4345,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:45">
@@ -4368,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -4482,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:45">
@@ -4496,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -4610,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:45">
@@ -4633,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -4747,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:45">
@@ -4770,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -4884,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:45">
@@ -4907,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -5021,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:45">
@@ -5044,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -5158,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:45">
@@ -5181,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -5295,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:45">
@@ -5318,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -5432,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:45">
@@ -5455,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -5569,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:45">
@@ -5592,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -5706,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:45">
@@ -5729,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -5843,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:45">
@@ -5866,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -5980,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:45">
@@ -6003,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -6117,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:45">
@@ -6140,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -6254,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:45">
@@ -6277,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -6391,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:45">
@@ -6414,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -6528,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:45">
@@ -6551,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -6665,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:45">
@@ -6688,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -6802,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:45">
@@ -6825,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -6939,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:45">
@@ -6962,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -7076,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:45">
@@ -7099,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -7213,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:45">
@@ -7236,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -7350,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:45">
@@ -7373,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -7487,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:45">
@@ -7510,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -7624,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:45">
@@ -7647,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -7761,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:45">
@@ -7784,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -7898,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:45">
@@ -7921,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -8035,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:45">
@@ -8058,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -8172,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:45">
@@ -8195,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -8309,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:45">
@@ -8332,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -8446,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:45">
@@ -8469,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -8583,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:45">
@@ -8606,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -8720,7 +8726,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:45">
@@ -8743,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -8857,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:45">
@@ -8880,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -8994,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:45">
@@ -9017,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -9131,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:45">
@@ -9154,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -9268,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:45">
@@ -9291,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -9405,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="AS62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:45">
@@ -9428,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -9542,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:45">
@@ -9565,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -9679,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:45">
@@ -9693,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -9807,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:45">
@@ -9830,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -9944,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:45">
@@ -9967,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -10081,7 +10087,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:45">
@@ -10104,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -10218,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="AS68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:45">
@@ -10241,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -10355,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:45">
@@ -10378,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -10492,7 +10498,7 @@
         <v>0</v>
       </c>
       <c r="AS70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:45">
@@ -10515,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -10629,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>res_c1</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>_uuid</t>
-  </si>
-  <si>
-    <t>cri_p2_c3</t>
   </si>
   <si>
     <t>Alcaldia Local De Antonio Narino</t>
@@ -929,13 +926,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT71"/>
+  <dimension ref="A1:AS71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,11 +1068,8 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:45">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1095,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1209,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:45">
       <c r="A3">
         <v>42.40000000000001</v>
       </c>
@@ -1232,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1346,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:45">
       <c r="A4">
         <v>39.88</v>
       </c>
@@ -1369,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1483,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:45">
       <c r="A5">
         <v>46.88</v>
       </c>
@@ -1506,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1620,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:45">
       <c r="A6">
         <v>23.2</v>
       </c>
@@ -1643,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1757,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:45">
       <c r="A7">
         <v>13</v>
       </c>
@@ -1780,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1894,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:45">
       <c r="A8">
         <v>37.8</v>
       </c>
@@ -1917,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2031,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:45">
       <c r="A9">
         <v>28.4</v>
       </c>
@@ -2054,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2168,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:45">
       <c r="A10">
         <v>32.6</v>
       </c>
@@ -2191,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2305,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:45">
       <c r="A11">
         <v>26.4</v>
       </c>
@@ -2328,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2442,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:45">
       <c r="A12">
         <v>36.8</v>
       </c>
@@ -2465,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2579,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:45">
       <c r="A13">
         <v>24.2</v>
       </c>
@@ -2602,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2716,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:45">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2739,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2853,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:45">
       <c r="A15">
         <v>34</v>
       </c>
@@ -2876,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2990,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:45">
       <c r="A16">
         <v>47.2</v>
       </c>
@@ -3013,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3127,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:45">
@@ -3150,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3264,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -3287,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3401,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:45">
@@ -3424,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3538,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:45">
@@ -3561,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3675,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:45">
@@ -3698,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3812,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3835,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3949,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -3972,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -4086,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:45">
@@ -4100,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -4214,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -4237,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -4351,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:45">
@@ -4374,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -4488,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:45">
@@ -4502,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -4616,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:45">
@@ -4639,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -4753,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:45">
@@ -4776,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -4890,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:45">
@@ -4913,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -5027,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:45">
@@ -5050,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -5164,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:45">
@@ -5187,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -5301,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:45">
@@ -5324,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -5438,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:45">
@@ -5461,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -5575,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:45">
@@ -5598,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -5712,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:45">
@@ -5735,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -5849,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:45">
@@ -5872,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -5986,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:45">
@@ -6009,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -6123,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:45">
@@ -6146,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -6260,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:45">
@@ -6283,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -6397,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:45">
@@ -6420,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -6534,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:45">
@@ -6557,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -6671,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:45">
@@ -6694,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -6808,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:45">
@@ -6831,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -6945,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:45">
@@ -6968,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -7082,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:45">
@@ -7105,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -7219,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:45">
@@ -7242,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -7356,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:45">
@@ -7379,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -7493,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:45">
@@ -7516,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -7630,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:45">
@@ -7653,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -7767,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:45">
@@ -7790,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -7904,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:45">
@@ -7927,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -8041,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:45">
@@ -8064,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -8178,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:45">
@@ -8201,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -8315,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:45">
@@ -8338,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -8452,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:45">
@@ -8475,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -8589,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:45">
@@ -8612,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -8726,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:45">
@@ -8749,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -8863,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:45">
@@ -8886,7 +8880,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -9000,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:45">
@@ -9023,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -9137,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:45">
@@ -9160,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -9274,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:45">
@@ -9297,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -9411,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="AS62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:45">
@@ -9434,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -9548,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:45">
@@ -9571,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -9685,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:45">
@@ -9699,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -9813,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:45">
@@ -9836,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -9950,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:45">
@@ -9973,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -10087,7 +10081,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:45">
@@ -10110,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -10224,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="AS68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:45">
@@ -10247,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -10361,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:45">
@@ -10384,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -10498,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="AS70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:45">
@@ -10521,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -10635,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -1930,21 +1930,15 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>21.6</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="n">
-        <v>23.05</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -2212,21 +2206,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>24.2</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>0</v>
       </c>
@@ -3481,27 +3469,21 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>40.00000000000001</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="n">
-        <v>64</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="n">
-        <v>40</v>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Caja De La Vivienda Popular</t>
+          <t>Caja De Vivienda Popular</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -4758,7 +4740,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Fondo De Prestaciones Economicas, Cesantias Y Pensiones</t>
+          <t>Fondo De Prestaciones Economicas Cesantias Y Pensiones</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -5443,27 +5425,21 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>74.80000000000001</v>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="n">
-        <v>34.4</v>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="n">
-        <v>49.57000000000001</v>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Instituto Distrital De Participacion Y Accion Comunal</t>
+          <t>Instituto Distrital De Participacion Y Accion Comunal Idpac</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -6149,19 +6125,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>32.488</v>
+        <v>36</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>39.182</v>
+        <v>20.88</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -7296,7 +7272,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Secretaria Distrital De Cultura, Recreacion Y Deporte</t>
+          <t>Secretaria Distrital De Cultura Recreacion Y Deporte</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -8706,7 +8682,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Secretaria Distrital De Seguridad, Convivencia Y Justicia</t>
+          <t>Secretaria Distrital De Seguridad Convivencia Y Justicia</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -9532,15 +9508,21 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
+      <c r="A65" t="n">
+        <v>60</v>
+      </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>70</v>
+      </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>66.05</v>
+      </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
@@ -10231,21 +10213,15 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>36</v>
-      </c>
+      <c r="A70" t="inlineStr"/>
       <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C70" t="n">
-        <v>12</v>
-      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="n">
-        <v>20.88</v>
-      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
         <v>0</v>
       </c>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -1930,15 +1930,21 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="n">
+        <v>26.4</v>
+      </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>21.6</v>
+      </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>23.05</v>
+      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -2206,15 +2212,21 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="n">
+        <v>24.2</v>
+      </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>16.8</v>
+      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
@@ -3469,15 +3481,21 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="n">
+        <v>40.00000000000001</v>
+      </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>64</v>
+      </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>40</v>
+      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
@@ -5425,21 +5443,27 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="n">
+        <v>74.80000000000001</v>
+      </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>34.4</v>
+      </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>49.57000000000001</v>
+      </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Instituto Distrital De Participacion Y Accion Comunal Idpac</t>
+          <t>Instituto Distrital De Participacion Y Accion Comunal</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -6125,19 +6149,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>36</v>
+        <v>32.488</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>20.88</v>
+        <v>39.182</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -10213,15 +10237,21 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
+      <c r="A70" t="n">
+        <v>36</v>
+      </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="n">
+        <v>12</v>
+      </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>20.88</v>
+      </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -5464,31 +5464,31 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -6175,19 +6175,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AS34" t="s">
         <v>147</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AD61">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J72">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -10676,28 +10676,28 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -10727,10 +10727,10 @@
         <v>0</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="AC72">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD72">
         <v>0</v>
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="AG72">
-        <v>0</v>
+        <v>6.67</v>
       </c>
       <c r="AH72">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -10670,34 +10670,34 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -10727,10 +10727,10 @@
         <v>0</v>
       </c>
       <c r="AB72">
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AD72">
         <v>0</v>
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="AG72">
-        <v>6.67</v>
+        <v>0</v>
       </c>
       <c r="AH72">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -10670,91 +10670,91 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X72">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="AC72">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD72">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE72">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="AF72">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AG72">
-        <v>0</v>
+        <v>13.47</v>
       </c>
       <c r="AH72">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI72">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AJ72">
         <v>0</v>
       </c>
       <c r="AK72">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AL72">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="AR72">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AS72" t="s">
         <v>185</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3987,49 +3987,49 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -4032,19 +4032,19 @@
         <v>1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG23">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -4047,7 +4047,7 @@
         <v>0.5</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH23">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\resultados\2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F869C3A-089A-4FE7-B806-4CB5DD105996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -577,8 +583,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,13 +647,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -685,7 +699,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -719,6 +733,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -753,9 +768,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -928,14 +944,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1090,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1086,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1209,9 +1227,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>42.40000000000001</v>
+        <v>42.400000000000013</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1346,9 +1364,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>39.88</v>
+        <v>39.880000000000003</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1360,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>32.24299999999999</v>
+        <v>32.242999999999988</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1483,7 +1501,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>46.88</v>
       </c>
@@ -1497,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1620,7 +1638,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23.2</v>
       </c>
@@ -1634,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.982</v>
+        <v>25.981999999999999</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1757,7 +1775,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23.2</v>
       </c>
@@ -1771,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.982</v>
+        <v>25.981999999999999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1894,7 +1912,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13</v>
       </c>
@@ -2031,9 +2049,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2045,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.393</v>
+        <v>35.393000000000001</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2168,7 +2186,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28.4</v>
       </c>
@@ -2182,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.563</v>
+        <v>38.563000000000002</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2305,7 +2323,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32.6</v>
       </c>
@@ -2313,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2442,7 +2460,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>26.4</v>
       </c>
@@ -2579,21 +2597,21 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>32.40000000000001</v>
+        <v>32.400000000000013</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>38.15000000000001</v>
+        <v>38.150000000000013</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2716,7 +2734,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24.2</v>
       </c>
@@ -2853,7 +2871,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2990,7 +3008,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>34</v>
       </c>
@@ -3004,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.643</v>
+        <v>37.643000000000001</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3127,7 +3145,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>47.2</v>
       </c>
@@ -3264,21 +3282,21 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>38.40000000000001</v>
+        <v>38.400000000000013</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.353</v>
+        <v>36.353000000000002</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3401,7 +3419,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>42</v>
       </c>
@@ -3538,7 +3556,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44.2</v>
       </c>
@@ -3546,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3675,7 +3693,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>41.2</v>
       </c>
@@ -3689,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>37.21000000000001</v>
+        <v>37.210000000000008</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3812,7 +3830,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>32</v>
       </c>
@@ -3949,9 +3967,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>40.00000000000001</v>
+        <v>40.000000000000007</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4047,7 +4065,7 @@
         <v>0.5</v>
       </c>
       <c r="AG23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -4086,7 +4104,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>40.4</v>
       </c>
@@ -4100,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>33.38</v>
+        <v>33.380000000000003</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4223,7 +4241,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0</v>
       </c>
@@ -4351,9 +4369,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>46.40000000000001</v>
+        <v>46.400000000000013</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4365,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>37.417</v>
+        <v>37.417000000000002</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4488,7 +4506,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>78.2</v>
       </c>
@@ -4496,13 +4514,13 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>62.59999999999999</v>
+        <v>62.599999999999987</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>60.82000000000001</v>
+        <v>60.820000000000007</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -4625,7 +4643,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0</v>
       </c>
@@ -4753,7 +4771,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>36.4</v>
       </c>
@@ -4767,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>26.26000000000001</v>
+        <v>26.260000000000009</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -4890,7 +4908,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>54.8</v>
       </c>
@@ -4904,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>47.59999999999999</v>
+        <v>47.599999999999987</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -5027,7 +5045,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>16</v>
       </c>
@@ -5164,7 +5182,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>48.2</v>
       </c>
@@ -5178,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>40.68000000000001</v>
+        <v>40.680000000000007</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5301,7 +5319,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>56.2</v>
       </c>
@@ -5315,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>48.51000000000001</v>
+        <v>48.510000000000012</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -5438,7 +5456,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>55.6</v>
       </c>
@@ -5452,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>42.49999999999999</v>
+        <v>42.499999999999993</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -5575,7 +5593,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>26</v>
       </c>
@@ -5583,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>39.59999999999999</v>
+        <v>39.599999999999987</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5712,7 +5730,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>74.8</v>
       </c>
@@ -5849,9 +5867,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>74.80000000000001</v>
+        <v>74.800000000000011</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5863,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>49.57000000000001</v>
+        <v>49.570000000000007</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5986,7 +6004,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>43.4</v>
       </c>
@@ -6123,9 +6141,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>51.60000000000001</v>
+        <v>51.600000000000009</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -6137,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>35.05</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -6260,7 +6278,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>60.4</v>
       </c>
@@ -6397,7 +6415,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:45">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>43.2</v>
       </c>
@@ -6411,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>36.87</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -6534,7 +6552,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>32.488</v>
       </c>
@@ -6548,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>39.182</v>
+        <v>39.182000000000002</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -6671,7 +6689,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>58.7</v>
       </c>
@@ -6685,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>56.415</v>
+        <v>56.414999999999999</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -6808,9 +6826,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:45">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>38.00000000000001</v>
+        <v>38.000000000000007</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6822,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -6945,7 +6963,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:45">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>59.2</v>
       </c>
@@ -6959,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>55.43000000000001</v>
+        <v>55.430000000000007</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -7082,7 +7100,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:45">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>41.2</v>
       </c>
@@ -7090,13 +7108,13 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>32.88999999999999</v>
+        <v>32.889999999999993</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -7219,7 +7237,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:45">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -7356,9 +7374,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:45">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>74.39999999999999</v>
+        <v>74.399999999999991</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7370,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>70.973</v>
+        <v>70.972999999999999</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -7493,9 +7511,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:45">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7630,7 +7648,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:45">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>52.8</v>
       </c>
@@ -7644,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>52.345</v>
+        <v>52.344999999999999</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -7767,7 +7785,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:45">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>25.2</v>
       </c>
@@ -7904,7 +7922,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:45">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>60.8</v>
       </c>
@@ -7918,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>59.773</v>
+        <v>59.773000000000003</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -8041,9 +8059,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:45">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8055,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>43.82000000000001</v>
+        <v>43.820000000000007</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -8178,9 +8196,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:45">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>66.40000000000001</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -8315,7 +8333,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:45">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>30.4</v>
       </c>
@@ -8452,7 +8470,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:45">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>46.8</v>
       </c>
@@ -8466,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>48.32000000000001</v>
+        <v>48.320000000000007</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -8589,9 +8607,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:45">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>64.59999999999999</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -8603,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>66.28999999999999</v>
+        <v>66.289999999999992</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -8726,7 +8744,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:45">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>60.4</v>
       </c>
@@ -8740,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>55.04600000000001</v>
+        <v>55.046000000000006</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -8863,7 +8881,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:45">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58.8</v>
       </c>
@@ -8877,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>61.65000000000001</v>
+        <v>61.650000000000013</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -9000,7 +9018,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:45">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>53.2</v>
       </c>
@@ -9137,7 +9155,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:45">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>80.8</v>
       </c>
@@ -9145,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>72.80000000000001</v>
+        <v>72.800000000000011</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>76.68000000000001</v>
+        <v>76.680000000000007</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -9274,9 +9292,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:45">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>38.88</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -9411,7 +9429,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:45">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>28.2</v>
       </c>
@@ -9425,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>35.118</v>
+        <v>35.118000000000002</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -9548,7 +9566,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:45">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>22.4</v>
       </c>
@@ -9562,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>27.364</v>
+        <v>27.364000000000001</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -9685,7 +9703,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:45">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>24.8</v>
       </c>
@@ -9699,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>35.999</v>
+        <v>35.999000000000002</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -9822,7 +9840,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:45">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>60</v>
       </c>
@@ -9959,7 +9977,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:45">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>26.8</v>
       </c>
@@ -10096,7 +10114,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:45">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>57.2</v>
       </c>
@@ -10110,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>63.836</v>
+        <v>63.835999999999999</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -10233,21 +10251,21 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:45">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>38.76000000000001</v>
+        <v>38.760000000000012</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>32.59999999999999</v>
+        <v>32.599999999999987</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>34.02</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -10370,7 +10388,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:45">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>47.8</v>
       </c>
@@ -10507,7 +10525,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:45">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>36</v>
       </c>
@@ -10644,7 +10662,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:45">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>77.2</v>
       </c>
@@ -10709,7 +10727,7 @@
         <v>1.6</v>
       </c>
       <c r="V72">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="W72">
         <v>0.8</v>
@@ -10718,7 +10736,7 @@
         <v>0.8</v>
       </c>
       <c r="Y72">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z72">
         <v>0.93</v>
@@ -10733,28 +10751,28 @@
         <v>2.1</v>
       </c>
       <c r="AD72">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE72">
         <v>0.53</v>
       </c>
       <c r="AF72">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG72">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="AH72">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AI72">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AJ72">
         <v>0</v>
       </c>
       <c r="AK72">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AL72">
         <v>0</v>
@@ -10775,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="AR72">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="AS72" t="s">
         <v>185</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\resultados\2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F869C3A-089A-4FE7-B806-4CB5DD105996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -583,8 +577,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,21 +641,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -699,7 +685,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -733,7 +719,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -768,10 +753,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -944,16 +928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,9 +1072,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45">
       <c r="A2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1104,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1227,21 +1209,21 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45">
       <c r="A3">
-        <v>42.400000000000013</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>31.573</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1364,21 +1346,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45">
       <c r="A4">
-        <v>39.880000000000003</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>32.242999999999988</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1501,21 +1483,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45">
       <c r="A5">
-        <v>46.88</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>26.2</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>35.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1638,21 +1620,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45">
       <c r="A6">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.981999999999999</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1775,21 +1757,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45">
       <c r="A7">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.981999999999999</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1912,9 +1894,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45">
       <c r="A8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1926,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.756</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2049,21 +2031,21 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45">
       <c r="A9">
-        <v>37.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>24.4</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.393000000000001</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2186,21 +2168,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45">
       <c r="A10">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.563000000000002</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2323,21 +2305,21 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45">
       <c r="A11">
-        <v>32.6</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>36.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.14</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2460,21 +2442,21 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45">
       <c r="A12">
-        <v>26.4</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.05</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2597,21 +2579,21 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45">
       <c r="A13">
-        <v>36.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>32.400000000000013</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>38.150000000000013</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2734,9 +2716,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45">
       <c r="A14">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2748,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2871,7 +2853,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2879,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.58</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3008,21 +2990,21 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45">
       <c r="A16">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>40.4</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.643000000000001</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3145,21 +3127,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45">
       <c r="A17">
-        <v>47.2</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>46.91</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3282,21 +3264,21 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45">
       <c r="A18">
-        <v>33.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>38.400000000000013</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.353000000000002</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3419,21 +3401,21 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45">
       <c r="A19">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>38.89</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3556,21 +3538,21 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45">
       <c r="A20">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>34.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>41.34</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3693,21 +3675,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45">
       <c r="A21">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>37.210000000000008</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3830,21 +3812,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45">
       <c r="A22">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>30.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3967,21 +3949,21 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45">
       <c r="A23">
-        <v>40.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3993,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -4005,64 +3987,64 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG23">
         <v>0</v>
@@ -4104,21 +4086,21 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45">
       <c r="A24">
-        <v>40.4</v>
+        <v>0</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>29.2</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>33.380000000000003</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4241,11 +4223,20 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45">
+      <c r="A25">
+        <v>0</v>
+      </c>
       <c r="B25">
         <v>0</v>
       </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
@@ -4369,21 +4360,21 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45">
       <c r="A26">
-        <v>46.400000000000013</v>
+        <v>0</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>37.417000000000002</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4506,21 +4497,21 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45">
       <c r="A27">
-        <v>78.2</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>62.599999999999987</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>60.820000000000007</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -4643,11 +4634,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45">
+      <c r="A28">
+        <v>0</v>
+      </c>
       <c r="B28">
         <v>0</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
@@ -4771,21 +4771,21 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45">
       <c r="A29">
-        <v>36.4</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>17.2</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>26.260000000000009</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -4908,21 +4908,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45">
       <c r="A30">
-        <v>54.8</v>
+        <v>0</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>54.8</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>47.599999999999987</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -5045,21 +5045,21 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45">
       <c r="A31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>30.4</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>28.42</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5182,21 +5182,21 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45">
       <c r="A32">
-        <v>48.2</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>40.680000000000007</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5319,21 +5319,21 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45">
       <c r="A33">
-        <v>56.2</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>48.510000000000012</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -5456,21 +5456,21 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45">
       <c r="A34">
-        <v>55.6</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>42.499999999999993</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -5593,21 +5593,21 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45">
       <c r="A35">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>39.599999999999987</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>37.32</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -5730,21 +5730,21 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45">
       <c r="A36">
-        <v>74.8</v>
+        <v>0</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>59.2</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>63.67</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5867,21 +5867,21 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45">
       <c r="A37">
-        <v>74.800000000000011</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>34.4</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>49.570000000000007</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -6004,21 +6004,21 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45">
       <c r="A38">
-        <v>43.4</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>51.8</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>40.86</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -6141,21 +6141,21 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45">
       <c r="A39">
-        <v>51.600000000000009</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>35.049999999999997</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -6278,21 +6278,21 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45">
       <c r="A40">
-        <v>60.4</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>52.4</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>52.05</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -6415,21 +6415,21 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45">
       <c r="A41">
-        <v>43.2</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>36.869999999999997</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -6552,21 +6552,21 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45">
       <c r="A42">
-        <v>32.488</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>39.182000000000002</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -6689,21 +6689,21 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45">
       <c r="A43">
-        <v>58.7</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>46.6</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>56.414999999999999</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -6826,21 +6826,21 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45">
       <c r="A44">
-        <v>38.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>39.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -6963,21 +6963,21 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45">
       <c r="A45">
-        <v>59.2</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>57.4</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>55.430000000000007</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -7100,21 +7100,21 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45">
       <c r="A46">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>34.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>32.889999999999993</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45">
       <c r="A47">
         <v>0</v>
       </c>
@@ -7374,21 +7374,21 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45">
       <c r="A48">
-        <v>74.399999999999991</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>70.972999999999999</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -7511,21 +7511,21 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45">
       <c r="A49">
-        <v>39.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>41.67</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -7648,21 +7648,21 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45">
       <c r="A50">
-        <v>52.8</v>
+        <v>0</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>52.344999999999999</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -7785,21 +7785,21 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45">
       <c r="A51">
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>34.94</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -7922,21 +7922,21 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45">
       <c r="A52">
-        <v>60.8</v>
+        <v>0</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>74.59999999999998</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>59.773000000000003</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -8059,21 +8059,21 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45">
       <c r="A53">
-        <v>38.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>51.8</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>43.820000000000007</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -8196,21 +8196,21 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45">
       <c r="A54">
-        <v>66.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>68.8</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>62.3</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -8333,21 +8333,21 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45">
       <c r="A55">
-        <v>30.4</v>
+        <v>0</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>27.4</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>28.59</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -8470,21 +8470,21 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45">
       <c r="A56">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>48.320000000000007</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -8607,21 +8607,21 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45">
       <c r="A57">
-        <v>64.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>66.289999999999992</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -8744,21 +8744,21 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45">
       <c r="A58">
-        <v>60.4</v>
+        <v>0</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>55.046000000000006</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -8881,21 +8881,21 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45">
       <c r="A59">
-        <v>58.8</v>
+        <v>0</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>60.6</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>61.650000000000013</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -9018,21 +9018,21 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45">
       <c r="A60">
-        <v>53.2</v>
+        <v>0</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>56.8</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>45.69</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -9155,21 +9155,21 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45">
       <c r="A61">
-        <v>80.8</v>
+        <v>0</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>72.800000000000011</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>76.680000000000007</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -9292,21 +9292,21 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45">
       <c r="A62">
-        <v>38.880000000000003</v>
+        <v>0</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>38.94</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -9429,21 +9429,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45">
       <c r="A63">
-        <v>28.2</v>
+        <v>0</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>48.8</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>35.118000000000002</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -9566,21 +9566,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45">
       <c r="A64">
-        <v>22.4</v>
+        <v>0</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>27.364000000000001</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -9703,21 +9703,21 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45">
       <c r="A65">
-        <v>24.8</v>
+        <v>0</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>35.999000000000002</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -9840,21 +9840,21 @@
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45">
       <c r="A66">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>66.05</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -9977,21 +9977,21 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45">
       <c r="A67">
-        <v>26.8</v>
+        <v>0</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>26.66</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -10114,21 +10114,21 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45">
       <c r="A68">
-        <v>57.2</v>
+        <v>0</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>63.835999999999999</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -10251,21 +10251,21 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45">
       <c r="A69">
-        <v>38.760000000000012</v>
+        <v>0</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>32.599999999999987</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>34.020000000000003</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -10388,21 +10388,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45">
       <c r="A70">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>60.2</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>48.12</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -10525,21 +10525,21 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45">
       <c r="A71">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>20.88</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -10662,21 +10662,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45">
       <c r="A72">
-        <v>77.2</v>
+        <v>22.77</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>17.64</v>
       </c>
       <c r="C72">
-        <v>62.4</v>
+        <v>17.97</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="E72">
-        <v>65.17</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -10724,10 +10724,10 @@
         <v>0.43</v>
       </c>
       <c r="U72">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V72">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="W72">
         <v>0.8</v>
@@ -10736,7 +10736,7 @@
         <v>0.8</v>
       </c>
       <c r="Y72">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Z72">
         <v>0.93</v>
@@ -10748,31 +10748,31 @@
         <v>3.49</v>
       </c>
       <c r="AC72">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="AD72">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AE72">
         <v>0.53</v>
       </c>
       <c r="AF72">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AG72">
-        <v>0</v>
+        <v>13.47</v>
       </c>
       <c r="AH72">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI72">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AJ72">
         <v>0</v>
       </c>
       <c r="AK72">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AL72">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="AR72">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AS72" t="s">
         <v>185</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -3951,7 +3951,7 @@
     </row>
     <row r="23" spans="1:45">
       <c r="A23">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="J23">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -3721,40 +3721,40 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AJ23" t="n">
         <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AQ23" t="n">
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
@@ -3931,19 +3931,19 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -3958,55 +3958,55 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>2.59</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
@@ -4015,28 +4015,28 @@
         <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -4225,37 +4225,37 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -4264,13 +4264,13 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -4270,13 +4270,13 @@
         <v>0.88</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.95</v>
+        <v>3.03</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -4285,19 +4285,19 @@
         <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>11.45</v>
+        <v>14.02</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ27" t="n">
         <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AL27" t="n">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\resultados\2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB68F1F-1CD9-4332-97BC-DC908FF85992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -583,8 +577,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,21 +641,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -699,7 +685,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -733,7 +719,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -768,10 +753,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -944,154 +928,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:45">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1101,20 +1083,20 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
       <c r="I2">
         <v>0</v>
       </c>
@@ -1223,16 +1205,13 @@
       <c r="AR2">
         <v>0</v>
       </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="s">
+      <c r="AS2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:45">
+      <c r="A3">
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1241,20 +1220,20 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>46</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -1363,16 +1342,13 @@
       <c r="AR3">
         <v>0</v>
       </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="s">
+      <c r="AS3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:45">
+      <c r="A4">
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1381,20 +1357,20 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>47</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -1503,16 +1479,13 @@
       <c r="AR4">
         <v>0</v>
       </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4" t="s">
+      <c r="AS4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:45">
+      <c r="A5">
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1521,20 +1494,20 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>48</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="I5">
         <v>0</v>
       </c>
@@ -1643,16 +1616,13 @@
       <c r="AR5">
         <v>0</v>
       </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="s">
+      <c r="AS5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:45">
+      <c r="A6">
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1661,20 +1631,20 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>49</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6">
         <v>0</v>
       </c>
@@ -1783,16 +1753,13 @@
       <c r="AR6">
         <v>0</v>
       </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="s">
+      <c r="AS6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
+    <row r="7" spans="1:45">
+      <c r="A7">
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1801,20 +1768,20 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>49</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="I7">
         <v>0</v>
       </c>
@@ -1923,16 +1890,13 @@
       <c r="AR7">
         <v>0</v>
       </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="s">
+      <c r="AS7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:45">
+      <c r="A8">
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1941,20 +1905,20 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>50</v>
       </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
       <c r="I8">
         <v>0</v>
       </c>
@@ -2063,16 +2027,13 @@
       <c r="AR8">
         <v>0</v>
       </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="s">
+      <c r="AS8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
+    <row r="9" spans="1:45">
+      <c r="A9">
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2081,20 +2042,20 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>51</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9">
         <v>0</v>
       </c>
@@ -2203,16 +2164,13 @@
       <c r="AR9">
         <v>0</v>
       </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="s">
+      <c r="AS9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
+    <row r="10" spans="1:45">
+      <c r="A10">
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2221,20 +2179,20 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>52</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="I10">
         <v>0</v>
       </c>
@@ -2343,16 +2301,13 @@
       <c r="AR10">
         <v>0</v>
       </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="s">
+      <c r="AS10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
+    <row r="11" spans="1:45">
+      <c r="A11">
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2361,20 +2316,20 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>53</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="I11">
         <v>0</v>
       </c>
@@ -2483,16 +2438,13 @@
       <c r="AR11">
         <v>0</v>
       </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11" t="s">
+      <c r="AS11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
+    <row r="12" spans="1:45">
+      <c r="A12">
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2501,20 +2453,20 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>54</v>
       </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="I12">
         <v>0</v>
       </c>
@@ -2623,16 +2575,13 @@
       <c r="AR12">
         <v>0</v>
       </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12" t="s">
+      <c r="AS12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
+    <row r="13" spans="1:45">
+      <c r="A13">
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2641,20 +2590,20 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s">
         <v>55</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="I13">
         <v>0</v>
       </c>
@@ -2763,16 +2712,13 @@
       <c r="AR13">
         <v>0</v>
       </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="s">
+      <c r="AS13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
+    <row r="14" spans="1:45">
+      <c r="A14">
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2781,20 +2727,20 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
         <v>56</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="I14">
         <v>0</v>
       </c>
@@ -2903,16 +2849,13 @@
       <c r="AR14">
         <v>0</v>
       </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="s">
+      <c r="AS14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
+    <row r="15" spans="1:45">
+      <c r="A15">
+        <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2921,20 +2864,20 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
         <v>57</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="I15">
         <v>0</v>
       </c>
@@ -3043,16 +2986,13 @@
       <c r="AR15">
         <v>0</v>
       </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="s">
+      <c r="AS15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
+    <row r="16" spans="1:45">
+      <c r="A16">
+        <v>0</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3061,20 +3001,20 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
         <v>58</v>
       </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="I16">
         <v>0</v>
       </c>
@@ -3183,16 +3123,13 @@
       <c r="AR16">
         <v>0</v>
       </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="s">
+      <c r="AS16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
+    <row r="17" spans="1:45">
+      <c r="A17">
+        <v>0</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3201,20 +3138,20 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
         <v>59</v>
       </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
       <c r="I17">
         <v>0</v>
       </c>
@@ -3323,16 +3260,13 @@
       <c r="AR17">
         <v>0</v>
       </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="s">
+      <c r="AS17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
+    <row r="18" spans="1:45">
+      <c r="A18">
+        <v>0</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3341,20 +3275,20 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
         <v>60</v>
       </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
       <c r="I18">
         <v>0</v>
       </c>
@@ -3463,16 +3397,13 @@
       <c r="AR18">
         <v>0</v>
       </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="s">
+      <c r="AS18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
+    <row r="19" spans="1:45">
+      <c r="A19">
+        <v>0</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3481,20 +3412,20 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
         <v>61</v>
       </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="I19">
         <v>0</v>
       </c>
@@ -3603,16 +3534,13 @@
       <c r="AR19">
         <v>0</v>
       </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="s">
+      <c r="AS19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
+    <row r="20" spans="1:45">
+      <c r="A20">
+        <v>0</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3621,20 +3549,20 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s">
         <v>62</v>
       </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="I20">
         <v>0</v>
       </c>
@@ -3743,16 +3671,13 @@
       <c r="AR20">
         <v>0</v>
       </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="s">
+      <c r="AS20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
+    <row r="21" spans="1:45">
+      <c r="A21">
+        <v>0</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3761,20 +3686,20 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
         <v>63</v>
       </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
       <c r="I21">
         <v>0</v>
       </c>
@@ -3883,16 +3808,13 @@
       <c r="AR21">
         <v>0</v>
       </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="s">
+      <c r="AS21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
+    <row r="22" spans="1:45">
+      <c r="A22">
+        <v>0</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3901,20 +3823,20 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
         <v>64</v>
       </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
       <c r="I22">
         <v>0</v>
       </c>
@@ -4023,16 +3945,13 @@
       <c r="AR22">
         <v>0</v>
       </c>
-      <c r="AS22">
-        <v>0</v>
-      </c>
-      <c r="AT22" t="s">
+      <c r="AS22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
+    <row r="23" spans="1:45">
+      <c r="A23">
+        <v>0</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4041,20 +3960,20 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s">
         <v>65</v>
       </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
       <c r="I23">
         <v>0</v>
       </c>
@@ -4163,16 +4082,13 @@
       <c r="AR23">
         <v>0</v>
       </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
-      <c r="AT23" t="s">
+      <c r="AS23" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
+    <row r="24" spans="1:45">
+      <c r="A24">
+        <v>0</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4181,20 +4097,20 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s">
         <v>66</v>
       </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
       <c r="I24">
         <v>0</v>
       </c>
@@ -4303,16 +4219,13 @@
       <c r="AR24">
         <v>0</v>
       </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="s">
+      <c r="AS24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
+    <row r="25" spans="1:45">
+      <c r="A25">
+        <v>0</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4321,20 +4234,20 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" t="s">
         <v>67</v>
       </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
       <c r="I25">
         <v>0</v>
       </c>
@@ -4443,16 +4356,13 @@
       <c r="AR25">
         <v>0</v>
       </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="s">
+      <c r="AS25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
+    <row r="26" spans="1:45">
+      <c r="A26">
+        <v>0</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4461,20 +4371,20 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s">
         <v>68</v>
       </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
       <c r="I26">
         <v>0</v>
       </c>
@@ -4583,16 +4493,13 @@
       <c r="AR26">
         <v>0</v>
       </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
-      <c r="AT26" t="s">
+      <c r="AS26" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
+    <row r="27" spans="1:45">
+      <c r="A27">
+        <v>0</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4601,20 +4508,20 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s">
         <v>69</v>
       </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
       <c r="I27">
         <v>0</v>
       </c>
@@ -4721,18 +4628,15 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27" t="s">
+        <v>3.2</v>
+      </c>
+      <c r="AS27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
+    <row r="28" spans="1:45">
+      <c r="A28">
+        <v>0</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4741,20 +4645,20 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G28" t="s">
         <v>70</v>
       </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
       <c r="I28">
         <v>0</v>
       </c>
@@ -4863,16 +4767,13 @@
       <c r="AR28">
         <v>0</v>
       </c>
-      <c r="AS28">
-        <v>0</v>
-      </c>
-      <c r="AT28" t="s">
+      <c r="AS28" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>27</v>
+    <row r="29" spans="1:45">
+      <c r="A29">
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4881,20 +4782,20 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G29" t="s">
         <v>71</v>
       </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
       <c r="I29">
         <v>0</v>
       </c>
@@ -5003,16 +4904,13 @@
       <c r="AR29">
         <v>0</v>
       </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29" t="s">
+      <c r="AS29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
+    <row r="30" spans="1:45">
+      <c r="A30">
+        <v>0</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5021,20 +4919,20 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s">
         <v>72</v>
       </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
       <c r="I30">
         <v>0</v>
       </c>
@@ -5143,16 +5041,13 @@
       <c r="AR30">
         <v>0</v>
       </c>
-      <c r="AS30">
-        <v>0</v>
-      </c>
-      <c r="AT30" t="s">
+      <c r="AS30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
+    <row r="31" spans="1:45">
+      <c r="A31">
+        <v>0</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -5161,20 +5056,20 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G31" t="s">
         <v>73</v>
       </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
       <c r="I31">
         <v>0</v>
       </c>
@@ -5283,16 +5178,13 @@
       <c r="AR31">
         <v>0</v>
       </c>
-      <c r="AS31">
-        <v>0</v>
-      </c>
-      <c r="AT31" t="s">
+      <c r="AS31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
+    <row r="32" spans="1:45">
+      <c r="A32">
+        <v>0</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5301,20 +5193,20 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="G32" t="s">
         <v>74</v>
       </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
       <c r="I32">
         <v>0</v>
       </c>
@@ -5423,16 +5315,13 @@
       <c r="AR32">
         <v>0</v>
       </c>
-      <c r="AS32">
-        <v>0</v>
-      </c>
-      <c r="AT32" t="s">
+      <c r="AS32" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
+    <row r="33" spans="1:45">
+      <c r="A33">
+        <v>0</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5441,20 +5330,20 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="G33" t="s">
         <v>75</v>
       </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
       <c r="I33">
         <v>0</v>
       </c>
@@ -5563,16 +5452,13 @@
       <c r="AR33">
         <v>0</v>
       </c>
-      <c r="AS33">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="s">
+      <c r="AS33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
+    <row r="34" spans="1:45">
+      <c r="A34">
+        <v>0</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5581,20 +5467,20 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s">
         <v>76</v>
       </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
       <c r="I34">
         <v>0</v>
       </c>
@@ -5703,16 +5589,13 @@
       <c r="AR34">
         <v>0</v>
       </c>
-      <c r="AS34">
-        <v>0</v>
-      </c>
-      <c r="AT34" t="s">
+      <c r="AS34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
+    <row r="35" spans="1:45">
+      <c r="A35">
+        <v>0</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5721,20 +5604,20 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="G35" t="s">
         <v>77</v>
       </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
       <c r="I35">
         <v>0</v>
       </c>
@@ -5843,16 +5726,13 @@
       <c r="AR35">
         <v>0</v>
       </c>
-      <c r="AS35">
-        <v>0</v>
-      </c>
-      <c r="AT35" t="s">
+      <c r="AS35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34</v>
+    <row r="36" spans="1:45">
+      <c r="A36">
+        <v>0</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5861,20 +5741,20 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="G36" t="s">
         <v>78</v>
       </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
       <c r="I36">
         <v>0</v>
       </c>
@@ -5983,16 +5863,13 @@
       <c r="AR36">
         <v>0</v>
       </c>
-      <c r="AS36">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="s">
+      <c r="AS36" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>35</v>
+    <row r="37" spans="1:45">
+      <c r="A37">
+        <v>0</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -6001,20 +5878,20 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G37" t="s">
         <v>79</v>
       </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
       <c r="I37">
         <v>0</v>
       </c>
@@ -6123,16 +6000,13 @@
       <c r="AR37">
         <v>0</v>
       </c>
-      <c r="AS37">
-        <v>0</v>
-      </c>
-      <c r="AT37" t="s">
+      <c r="AS37" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>36</v>
+    <row r="38" spans="1:45">
+      <c r="A38">
+        <v>0</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -6141,20 +6015,20 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="G38" t="s">
         <v>80</v>
       </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
       <c r="I38">
         <v>0</v>
       </c>
@@ -6263,16 +6137,13 @@
       <c r="AR38">
         <v>0</v>
       </c>
-      <c r="AS38">
-        <v>0</v>
-      </c>
-      <c r="AT38" t="s">
+      <c r="AS38" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>37</v>
+    <row r="39" spans="1:45">
+      <c r="A39">
+        <v>0</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -6281,20 +6152,20 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G39" t="s">
         <v>81</v>
       </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
       <c r="I39">
         <v>0</v>
       </c>
@@ -6403,16 +6274,13 @@
       <c r="AR39">
         <v>0</v>
       </c>
-      <c r="AS39">
-        <v>0</v>
-      </c>
-      <c r="AT39" t="s">
+      <c r="AS39" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>38</v>
+    <row r="40" spans="1:45">
+      <c r="A40">
+        <v>0</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -6421,20 +6289,20 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="G40" t="s">
         <v>82</v>
       </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
       <c r="I40">
         <v>0</v>
       </c>
@@ -6543,16 +6411,13 @@
       <c r="AR40">
         <v>0</v>
       </c>
-      <c r="AS40">
-        <v>0</v>
-      </c>
-      <c r="AT40" t="s">
+      <c r="AS40" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>39</v>
+    <row r="41" spans="1:45">
+      <c r="A41">
+        <v>0</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -6561,20 +6426,20 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G41" t="s">
         <v>83</v>
       </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
       <c r="I41">
         <v>0</v>
       </c>
@@ -6683,16 +6548,13 @@
       <c r="AR41">
         <v>0</v>
       </c>
-      <c r="AS41">
-        <v>0</v>
-      </c>
-      <c r="AT41" t="s">
+      <c r="AS41" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>40</v>
+    <row r="42" spans="1:45">
+      <c r="A42">
+        <v>0</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -6701,20 +6563,20 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="G42" t="s">
         <v>84</v>
       </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
       <c r="I42">
         <v>0</v>
       </c>
@@ -6823,16 +6685,13 @@
       <c r="AR42">
         <v>0</v>
       </c>
-      <c r="AS42">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="s">
+      <c r="AS42" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>41</v>
+    <row r="43" spans="1:45">
+      <c r="A43">
+        <v>0</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -6841,20 +6700,20 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s">
         <v>85</v>
       </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
       <c r="I43">
         <v>0</v>
       </c>
@@ -6963,16 +6822,13 @@
       <c r="AR43">
         <v>0</v>
       </c>
-      <c r="AS43">
-        <v>0</v>
-      </c>
-      <c r="AT43" t="s">
+      <c r="AS43" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42</v>
+    <row r="44" spans="1:45">
+      <c r="A44">
+        <v>0</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6981,20 +6837,20 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G44" t="s">
         <v>86</v>
       </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
       <c r="I44">
         <v>0</v>
       </c>
@@ -7103,16 +6959,13 @@
       <c r="AR44">
         <v>0</v>
       </c>
-      <c r="AS44">
-        <v>0</v>
-      </c>
-      <c r="AT44" t="s">
+      <c r="AS44" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43</v>
+    <row r="45" spans="1:45">
+      <c r="A45">
+        <v>0</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7121,20 +6974,20 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G45" t="s">
         <v>87</v>
       </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
       <c r="I45">
         <v>0</v>
       </c>
@@ -7243,16 +7096,13 @@
       <c r="AR45">
         <v>0</v>
       </c>
-      <c r="AS45">
-        <v>0</v>
-      </c>
-      <c r="AT45" t="s">
+      <c r="AS45" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44</v>
+    <row r="46" spans="1:45">
+      <c r="A46">
+        <v>0</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7261,20 +7111,20 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="G46" t="s">
         <v>88</v>
       </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
       <c r="I46">
         <v>0</v>
       </c>
@@ -7383,16 +7233,13 @@
       <c r="AR46">
         <v>0</v>
       </c>
-      <c r="AS46">
-        <v>0</v>
-      </c>
-      <c r="AT46" t="s">
+      <c r="AS46" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>45</v>
+    <row r="47" spans="1:45">
+      <c r="A47">
+        <v>0</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7401,20 +7248,20 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G47" t="s">
         <v>89</v>
       </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
       <c r="I47">
         <v>0</v>
       </c>
@@ -7523,16 +7370,13 @@
       <c r="AR47">
         <v>0</v>
       </c>
-      <c r="AS47">
-        <v>0</v>
-      </c>
-      <c r="AT47" t="s">
+      <c r="AS47" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>46</v>
+    <row r="48" spans="1:45">
+      <c r="A48">
+        <v>0</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7541,20 +7385,20 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="G48" t="s">
         <v>90</v>
       </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
       <c r="I48">
         <v>0</v>
       </c>
@@ -7663,16 +7507,13 @@
       <c r="AR48">
         <v>0</v>
       </c>
-      <c r="AS48">
-        <v>0</v>
-      </c>
-      <c r="AT48" t="s">
+      <c r="AS48" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>47</v>
+    <row r="49" spans="1:45">
+      <c r="A49">
+        <v>0</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7681,20 +7522,20 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G49" t="s">
         <v>91</v>
       </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
       <c r="I49">
         <v>0</v>
       </c>
@@ -7803,16 +7644,13 @@
       <c r="AR49">
         <v>0</v>
       </c>
-      <c r="AS49">
-        <v>0</v>
-      </c>
-      <c r="AT49" t="s">
+      <c r="AS49" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>48</v>
+    <row r="50" spans="1:45">
+      <c r="A50">
+        <v>0</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7821,20 +7659,20 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G50" t="s">
         <v>92</v>
       </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
       <c r="I50">
         <v>0</v>
       </c>
@@ -7943,16 +7781,13 @@
       <c r="AR50">
         <v>0</v>
       </c>
-      <c r="AS50">
-        <v>0</v>
-      </c>
-      <c r="AT50" t="s">
+      <c r="AS50" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>49</v>
+    <row r="51" spans="1:45">
+      <c r="A51">
+        <v>0</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7961,20 +7796,20 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G51" t="s">
         <v>93</v>
       </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
       <c r="I51">
         <v>0</v>
       </c>
@@ -8083,16 +7918,13 @@
       <c r="AR51">
         <v>0</v>
       </c>
-      <c r="AS51">
-        <v>0</v>
-      </c>
-      <c r="AT51" t="s">
+      <c r="AS51" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>50</v>
+    <row r="52" spans="1:45">
+      <c r="A52">
+        <v>0</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8101,20 +7933,20 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G52" t="s">
         <v>94</v>
       </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
       <c r="I52">
         <v>0</v>
       </c>
@@ -8223,16 +8055,13 @@
       <c r="AR52">
         <v>0</v>
       </c>
-      <c r="AS52">
-        <v>0</v>
-      </c>
-      <c r="AT52" t="s">
+      <c r="AS52" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>51</v>
+    <row r="53" spans="1:45">
+      <c r="A53">
+        <v>0</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8241,20 +8070,20 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="G53" t="s">
         <v>95</v>
       </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
       <c r="I53">
         <v>0</v>
       </c>
@@ -8363,16 +8192,13 @@
       <c r="AR53">
         <v>0</v>
       </c>
-      <c r="AS53">
-        <v>0</v>
-      </c>
-      <c r="AT53" t="s">
+      <c r="AS53" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>52</v>
+    <row r="54" spans="1:45">
+      <c r="A54">
+        <v>0</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -8381,20 +8207,20 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="G54" t="s">
         <v>96</v>
       </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
       <c r="I54">
         <v>0</v>
       </c>
@@ -8503,16 +8329,13 @@
       <c r="AR54">
         <v>0</v>
       </c>
-      <c r="AS54">
-        <v>0</v>
-      </c>
-      <c r="AT54" t="s">
+      <c r="AS54" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>53</v>
+    <row r="55" spans="1:45">
+      <c r="A55">
+        <v>0</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -8521,20 +8344,20 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="G55" t="s">
         <v>97</v>
       </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
       <c r="I55">
         <v>0</v>
       </c>
@@ -8643,16 +8466,13 @@
       <c r="AR55">
         <v>0</v>
       </c>
-      <c r="AS55">
-        <v>0</v>
-      </c>
-      <c r="AT55" t="s">
+      <c r="AS55" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>54</v>
+    <row r="56" spans="1:45">
+      <c r="A56">
+        <v>0</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -8661,20 +8481,20 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G56" t="s">
         <v>98</v>
       </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
       <c r="I56">
         <v>0</v>
       </c>
@@ -8783,16 +8603,13 @@
       <c r="AR56">
         <v>0</v>
       </c>
-      <c r="AS56">
-        <v>0</v>
-      </c>
-      <c r="AT56" t="s">
+      <c r="AS56" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>55</v>
+    <row r="57" spans="1:45">
+      <c r="A57">
+        <v>0</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -8801,20 +8618,20 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G57" t="s">
         <v>99</v>
       </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
       <c r="I57">
         <v>0</v>
       </c>
@@ -8923,16 +8740,13 @@
       <c r="AR57">
         <v>0</v>
       </c>
-      <c r="AS57">
-        <v>0</v>
-      </c>
-      <c r="AT57" t="s">
+      <c r="AS57" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>56</v>
+    <row r="58" spans="1:45">
+      <c r="A58">
+        <v>0</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -8941,20 +8755,20 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G58" t="s">
         <v>100</v>
       </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
       <c r="I58">
         <v>0</v>
       </c>
@@ -9063,16 +8877,13 @@
       <c r="AR58">
         <v>0</v>
       </c>
-      <c r="AS58">
-        <v>0</v>
-      </c>
-      <c r="AT58" t="s">
+      <c r="AS58" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>57</v>
+    <row r="59" spans="1:45">
+      <c r="A59">
+        <v>0</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -9081,20 +8892,20 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="G59" t="s">
         <v>101</v>
       </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
       <c r="I59">
         <v>0</v>
       </c>
@@ -9203,16 +9014,13 @@
       <c r="AR59">
         <v>0</v>
       </c>
-      <c r="AS59">
-        <v>0</v>
-      </c>
-      <c r="AT59" t="s">
+      <c r="AS59" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>58</v>
+    <row r="60" spans="1:45">
+      <c r="A60">
+        <v>0</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -9221,20 +9029,20 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="G60" t="s">
         <v>102</v>
       </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
       <c r="I60">
         <v>0</v>
       </c>
@@ -9343,16 +9151,13 @@
       <c r="AR60">
         <v>0</v>
       </c>
-      <c r="AS60">
-        <v>0</v>
-      </c>
-      <c r="AT60" t="s">
+      <c r="AS60" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>59</v>
+    <row r="61" spans="1:45">
+      <c r="A61">
+        <v>0</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -9361,20 +9166,20 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="G61" t="s">
         <v>103</v>
       </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
       <c r="I61">
         <v>0</v>
       </c>
@@ -9483,16 +9288,13 @@
       <c r="AR61">
         <v>0</v>
       </c>
-      <c r="AS61">
-        <v>0</v>
-      </c>
-      <c r="AT61" t="s">
+      <c r="AS61" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>60</v>
+    <row r="62" spans="1:45">
+      <c r="A62">
+        <v>0</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -9501,20 +9303,20 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G62" t="s">
         <v>104</v>
       </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
       <c r="I62">
         <v>0</v>
       </c>
@@ -9623,16 +9425,13 @@
       <c r="AR62">
         <v>0</v>
       </c>
-      <c r="AS62">
-        <v>0</v>
-      </c>
-      <c r="AT62" t="s">
+      <c r="AS62" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>61</v>
+    <row r="63" spans="1:45">
+      <c r="A63">
+        <v>0</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -9641,20 +9440,20 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G63" t="s">
         <v>105</v>
       </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
       <c r="I63">
         <v>0</v>
       </c>
@@ -9763,16 +9562,13 @@
       <c r="AR63">
         <v>0</v>
       </c>
-      <c r="AS63">
-        <v>0</v>
-      </c>
-      <c r="AT63" t="s">
+      <c r="AS63" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>62</v>
+    <row r="64" spans="1:45">
+      <c r="A64">
+        <v>0</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -9781,20 +9577,20 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G64" t="s">
         <v>106</v>
       </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
       <c r="I64">
         <v>0</v>
       </c>
@@ -9903,16 +9699,13 @@
       <c r="AR64">
         <v>0</v>
       </c>
-      <c r="AS64">
-        <v>0</v>
-      </c>
-      <c r="AT64" t="s">
+      <c r="AS64" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>63</v>
+    <row r="65" spans="1:45">
+      <c r="A65">
+        <v>0</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -9921,20 +9714,20 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="G65" t="s">
         <v>107</v>
       </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
       <c r="I65">
         <v>0</v>
       </c>
@@ -10043,16 +9836,13 @@
       <c r="AR65">
         <v>0</v>
       </c>
-      <c r="AS65">
-        <v>0</v>
-      </c>
-      <c r="AT65" t="s">
+      <c r="AS65" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>64</v>
+    <row r="66" spans="1:45">
+      <c r="A66">
+        <v>0</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -10061,20 +9851,20 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="G66" t="s">
         <v>108</v>
       </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
       <c r="I66">
         <v>0</v>
       </c>
@@ -10183,16 +9973,13 @@
       <c r="AR66">
         <v>0</v>
       </c>
-      <c r="AS66">
-        <v>0</v>
-      </c>
-      <c r="AT66" t="s">
+      <c r="AS66" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>65</v>
+    <row r="67" spans="1:45">
+      <c r="A67">
+        <v>0</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -10201,20 +9988,20 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="G67" t="s">
         <v>109</v>
       </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
       <c r="I67">
         <v>0</v>
       </c>
@@ -10323,16 +10110,13 @@
       <c r="AR67">
         <v>0</v>
       </c>
-      <c r="AS67">
-        <v>0</v>
-      </c>
-      <c r="AT67" t="s">
+      <c r="AS67" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>66</v>
+    <row r="68" spans="1:45">
+      <c r="A68">
+        <v>0</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -10341,20 +10125,20 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="G68" t="s">
         <v>110</v>
       </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
       <c r="I68">
         <v>0</v>
       </c>
@@ -10463,16 +10247,13 @@
       <c r="AR68">
         <v>0</v>
       </c>
-      <c r="AS68">
-        <v>0</v>
-      </c>
-      <c r="AT68" t="s">
+      <c r="AS68" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>67</v>
+    <row r="69" spans="1:45">
+      <c r="A69">
+        <v>0</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -10481,20 +10262,20 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="G69" t="s">
         <v>111</v>
       </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
       <c r="I69">
         <v>0</v>
       </c>
@@ -10603,16 +10384,13 @@
       <c r="AR69">
         <v>0</v>
       </c>
-      <c r="AS69">
-        <v>0</v>
-      </c>
-      <c r="AT69" t="s">
+      <c r="AS69" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>68</v>
+    <row r="70" spans="1:45">
+      <c r="A70">
+        <v>0</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -10621,20 +10399,20 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="G70" t="s">
         <v>112</v>
       </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
       <c r="I70">
         <v>0</v>
       </c>
@@ -10743,16 +10521,13 @@
       <c r="AR70">
         <v>0</v>
       </c>
-      <c r="AS70">
-        <v>0</v>
-      </c>
-      <c r="AT70" t="s">
+      <c r="AS70" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>69</v>
+    <row r="71" spans="1:45">
+      <c r="A71">
+        <v>0</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -10761,20 +10536,20 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="G71" t="s">
         <v>113</v>
       </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
       <c r="I71">
         <v>0</v>
       </c>
@@ -10883,16 +10658,13 @@
       <c r="AR71">
         <v>0</v>
       </c>
-      <c r="AS71">
-        <v>0</v>
-      </c>
-      <c r="AT71" t="s">
+      <c r="AS71" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>70</v>
+    <row r="72" spans="1:45">
+      <c r="A72">
+        <v>0</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -10901,20 +10673,20 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>525.4</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="G72" t="s">
         <v>114</v>
       </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
       <c r="I72">
         <v>0</v>
       </c>
@@ -11021,12 +10793,9 @@
         <v>0</v>
       </c>
       <c r="AR72">
-        <v>0</v>
-      </c>
-      <c r="AS72">
-        <v>0</v>
-      </c>
-      <c r="AT72" t="s">
+        <v>4.2</v>
+      </c>
+      <c r="AS72" t="s">
         <v>185</v>
       </c>
     </row>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\resultados\2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AC23AD-E888-4418-B358-5A0B7DD03D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -577,8 +596,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,13 +660,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -685,7 +712,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -719,6 +746,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -753,9 +781,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -928,14 +957,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1103,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1083,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1209,7 +1240,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1220,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1346,7 +1377,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1357,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1483,7 +1514,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1494,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1620,7 +1651,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1631,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1757,7 +1788,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1768,10 +1799,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1894,7 +1925,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1905,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2031,7 +2062,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2042,10 +2073,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2168,7 +2199,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2179,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2305,7 +2336,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2316,10 +2347,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2442,7 +2473,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2453,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2579,7 +2610,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2590,10 +2621,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2716,7 +2747,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2727,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2853,7 +2884,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2864,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2990,7 +3021,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -3001,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3127,7 +3158,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3138,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3264,7 +3295,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3275,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3401,7 +3432,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3412,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3538,7 +3569,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3549,10 +3580,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3675,7 +3706,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3686,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3812,7 +3843,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3823,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3949,21 +3980,21 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0</v>
+        <v>16.98</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>23.019999999999996</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E23">
-        <v>525.4</v>
+        <v>44.1</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3975,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3987,106 +4018,106 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AJ23">
         <v>0</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AQ23">
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AS23" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -4094,13 +4125,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>14.600000000000001</v>
       </c>
       <c r="D24">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>525.4</v>
+        <v>14.600000000000001</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4223,21 +4254,21 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>14.11</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.4</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="E25">
-        <v>525.4</v>
+        <v>29.61</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -4249,19 +4280,19 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -4276,55 +4307,55 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -4333,34 +4364,34 @@
         <v>0</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AS25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -4368,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="D26">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>525.4</v>
+        <v>12.6</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4497,21 +4528,21 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0</v>
+        <v>17.45</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>14.91</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>7.4</v>
+        <v>8.1000000000000014</v>
       </c>
       <c r="E27">
-        <v>525.4</v>
+        <v>40.46</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -4523,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -4535,37 +4566,37 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -4574,40 +4605,40 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AF27">
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>14.02</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ27">
         <v>0</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -4634,7 +4665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -4642,13 +4673,13 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>16.22</v>
       </c>
       <c r="D28">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>525.4</v>
+        <v>16.22</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4771,7 +4802,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -4782,10 +4813,10 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -4908,7 +4939,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -4919,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -5045,7 +5076,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5056,10 +5087,10 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5182,7 +5213,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -5193,10 +5224,10 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5319,7 +5350,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -5330,10 +5361,10 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -5456,7 +5487,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -5467,10 +5498,10 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -5593,7 +5624,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -5604,10 +5635,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -5730,7 +5761,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -5741,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5867,7 +5898,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -5878,10 +5909,10 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -6004,7 +6035,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -6015,10 +6046,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -6141,7 +6172,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -6152,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -6278,7 +6309,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -6289,10 +6320,10 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -6415,7 +6446,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:45">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -6426,10 +6457,10 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -6552,7 +6583,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -6563,10 +6594,10 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -6689,7 +6720,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -6700,10 +6731,10 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -6826,7 +6857,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:45">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -6837,10 +6868,10 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -6963,7 +6994,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:45">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -6974,10 +7005,10 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -7100,7 +7131,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:45">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -7111,10 +7142,10 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -7237,7 +7268,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:45">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -7248,10 +7279,10 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -7374,7 +7405,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:45">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -7385,10 +7416,10 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -7511,7 +7542,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:45">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -7522,10 +7553,10 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -7648,7 +7679,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:45">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -7659,10 +7690,10 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -7785,7 +7816,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:45">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -7796,10 +7827,10 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -7922,7 +7953,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:45">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -7933,10 +7964,10 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -8059,7 +8090,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:45">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -8070,10 +8101,10 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -8196,7 +8227,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:45">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -8207,10 +8238,10 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -8333,7 +8364,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:45">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -8344,10 +8375,10 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -8470,7 +8501,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:45">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0</v>
       </c>
@@ -8481,10 +8512,10 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -8607,7 +8638,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:45">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -8618,10 +8649,10 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -8744,7 +8775,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:45">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -8755,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -8881,7 +8912,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:45">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -8892,10 +8923,10 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -9018,7 +9049,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:45">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -9029,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -9155,7 +9186,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:45">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -9166,10 +9197,10 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -9292,7 +9323,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:45">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -9303,10 +9334,10 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -9429,7 +9460,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:45">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0</v>
       </c>
@@ -9440,10 +9471,10 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -9566,7 +9597,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:45">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0</v>
       </c>
@@ -9577,10 +9608,10 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -9703,7 +9734,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:45">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -9714,10 +9745,10 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -9840,7 +9871,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:45">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -9851,10 +9882,10 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -9977,7 +10008,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:45">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -9988,10 +10019,10 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -10114,7 +10145,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:45">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -10125,10 +10156,10 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -10251,7 +10282,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:45">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -10262,10 +10293,10 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -10388,7 +10419,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:45">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0</v>
       </c>
@@ -10399,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -10525,7 +10556,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:45">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -10536,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -10662,21 +10693,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:45">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0</v>
+        <v>22.85</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>17.64</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>7.4</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="E72">
-        <v>525.4</v>
+        <v>46.790000000000006</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -10688,91 +10719,91 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X72">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="AC72">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD72">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE72">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="AF72">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG72">
-        <v>0</v>
+        <v>13.47</v>
       </c>
       <c r="AH72">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AI72">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AJ72">
         <v>0</v>
       </c>
       <c r="AK72">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AL72">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\resultados\2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AC23AD-E888-4418-B358-5A0B7DD03D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -596,8 +577,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,21 +641,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -712,7 +685,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -746,7 +719,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -781,10 +753,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -957,16 +928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1240,7 +1209,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1377,7 +1346,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1514,7 +1483,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1651,7 +1620,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1788,7 +1757,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1925,7 +1894,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2062,7 +2031,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2199,7 +2168,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2336,7 +2305,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2473,7 +2442,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2610,7 +2579,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2747,7 +2716,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2884,7 +2853,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45">
       <c r="A15">
         <v>0</v>
       </c>
@@ -3021,7 +2990,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45">
       <c r="A16">
         <v>0</v>
       </c>
@@ -3158,7 +3127,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3295,7 +3264,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3432,7 +3401,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3569,7 +3538,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3706,7 +3675,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3843,7 +3812,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3980,21 +3949,21 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45">
       <c r="A23">
         <v>16.98</v>
       </c>
       <c r="B23">
-        <v>23.019999999999996</v>
+        <v>23.02</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="D23">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="E23">
-        <v>44.1</v>
+        <v>58.7</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4033,7 +4002,7 @@
         <v>3.9</v>
       </c>
       <c r="R23">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="S23">
         <v>1.65</v>
@@ -4066,7 +4035,7 @@
         <v>5.13</v>
       </c>
       <c r="AC23">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AD23">
         <v>1.42</v>
@@ -4081,10 +4050,10 @@
         <v>10.1</v>
       </c>
       <c r="AH23">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AI23">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AJ23">
         <v>0</v>
@@ -4117,7 +4086,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45">
       <c r="A24">
         <v>0</v>
       </c>
@@ -4125,13 +4094,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.600000000000001</v>
+        <v>14.6</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.600000000000001</v>
+        <v>14.6</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4254,7 +4223,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45">
       <c r="A25">
         <v>10.1</v>
       </c>
@@ -4265,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.3999999999999995</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="E25">
         <v>29.61</v>
@@ -4286,13 +4255,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -4337,7 +4306,7 @@
         <v>0.4</v>
       </c>
       <c r="AB25">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AC25">
         <v>1.4</v>
@@ -4391,7 +4360,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45">
       <c r="A26">
         <v>0</v>
       </c>
@@ -4528,7 +4497,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45">
       <c r="A27">
         <v>17.45</v>
       </c>
@@ -4536,13 +4505,13 @@
         <v>14.91</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>16.22</v>
       </c>
       <c r="D27">
-        <v>8.1000000000000014</v>
+        <v>8.1</v>
       </c>
       <c r="E27">
-        <v>40.46</v>
+        <v>56.68</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -4629,16 +4598,16 @@
         <v>14.02</v>
       </c>
       <c r="AH27">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AI27">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AJ27">
         <v>0</v>
       </c>
       <c r="AK27">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -4665,7 +4634,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45">
       <c r="A28">
         <v>0</v>
       </c>
@@ -4802,7 +4771,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45">
       <c r="A29">
         <v>0</v>
       </c>
@@ -4939,7 +4908,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45">
       <c r="A30">
         <v>0</v>
       </c>
@@ -5076,7 +5045,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5213,7 +5182,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45">
       <c r="A32">
         <v>0</v>
       </c>
@@ -5350,7 +5319,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45">
       <c r="A33">
         <v>0</v>
       </c>
@@ -5487,7 +5456,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45">
       <c r="A34">
         <v>0</v>
       </c>
@@ -5624,7 +5593,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45">
       <c r="A35">
         <v>0</v>
       </c>
@@ -5761,7 +5730,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45">
       <c r="A36">
         <v>0</v>
       </c>
@@ -5898,7 +5867,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45">
       <c r="A37">
         <v>0</v>
       </c>
@@ -6035,7 +6004,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45">
       <c r="A38">
         <v>0</v>
       </c>
@@ -6172,7 +6141,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45">
       <c r="A39">
         <v>0</v>
       </c>
@@ -6309,7 +6278,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45">
       <c r="A40">
         <v>0</v>
       </c>
@@ -6446,7 +6415,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45">
       <c r="A41">
         <v>0</v>
       </c>
@@ -6583,7 +6552,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45">
       <c r="A42">
         <v>0</v>
       </c>
@@ -6720,7 +6689,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45">
       <c r="A43">
         <v>0</v>
       </c>
@@ -6857,7 +6826,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45">
       <c r="A44">
         <v>0</v>
       </c>
@@ -6994,7 +6963,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45">
       <c r="A45">
         <v>0</v>
       </c>
@@ -7131,7 +7100,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45">
       <c r="A46">
         <v>0</v>
       </c>
@@ -7268,7 +7237,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45">
       <c r="A47">
         <v>0</v>
       </c>
@@ -7405,7 +7374,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45">
       <c r="A48">
         <v>0</v>
       </c>
@@ -7542,7 +7511,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45">
       <c r="A49">
         <v>0</v>
       </c>
@@ -7679,7 +7648,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45">
       <c r="A50">
         <v>0</v>
       </c>
@@ -7816,7 +7785,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45">
       <c r="A51">
         <v>0</v>
       </c>
@@ -7953,7 +7922,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45">
       <c r="A52">
         <v>0</v>
       </c>
@@ -8090,7 +8059,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45">
       <c r="A53">
         <v>0</v>
       </c>
@@ -8227,7 +8196,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45">
       <c r="A54">
         <v>0</v>
       </c>
@@ -8364,7 +8333,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45">
       <c r="A55">
         <v>0</v>
       </c>
@@ -8501,7 +8470,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45">
       <c r="A56">
         <v>0</v>
       </c>
@@ -8638,7 +8607,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45">
       <c r="A57">
         <v>0</v>
       </c>
@@ -8775,7 +8744,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45">
       <c r="A58">
         <v>0</v>
       </c>
@@ -8912,7 +8881,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45">
       <c r="A59">
         <v>0</v>
       </c>
@@ -9049,7 +9018,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45">
       <c r="A60">
         <v>0</v>
       </c>
@@ -9186,7 +9155,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45">
       <c r="A61">
         <v>0</v>
       </c>
@@ -9323,7 +9292,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45">
       <c r="A62">
         <v>0</v>
       </c>
@@ -9460,7 +9429,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45">
       <c r="A63">
         <v>0</v>
       </c>
@@ -9597,7 +9566,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45">
       <c r="A64">
         <v>0</v>
       </c>
@@ -9734,7 +9703,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45">
       <c r="A65">
         <v>0</v>
       </c>
@@ -9871,7 +9840,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45">
       <c r="A66">
         <v>0</v>
       </c>
@@ -10008,7 +9977,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45">
       <c r="A67">
         <v>0</v>
       </c>
@@ -10145,7 +10114,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45">
       <c r="A68">
         <v>0</v>
       </c>
@@ -10282,7 +10251,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45">
       <c r="A69">
         <v>0</v>
       </c>
@@ -10419,7 +10388,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45">
       <c r="A70">
         <v>0</v>
       </c>
@@ -10556,7 +10525,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45">
       <c r="A71">
         <v>0</v>
       </c>
@@ -10693,7 +10662,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45">
       <c r="A72">
         <v>22.85</v>
       </c>
@@ -10701,13 +10670,13 @@
         <v>17.64</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>17.97</v>
       </c>
       <c r="D72">
-        <v>6.3000000000000007</v>
+        <v>6.3</v>
       </c>
       <c r="E72">
-        <v>46.790000000000006</v>
+        <v>64.76000000000001</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -10758,7 +10727,7 @@
         <v>1.57</v>
       </c>
       <c r="V72">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="W72">
         <v>0.8</v>
@@ -10767,7 +10736,7 @@
         <v>0.8</v>
       </c>
       <c r="Y72">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Z72">
         <v>0.93</v>
@@ -10782,22 +10751,22 @@
         <v>3.1</v>
       </c>
       <c r="AD72">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AE72">
         <v>0.53</v>
       </c>
       <c r="AF72">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AG72">
         <v>13.47</v>
       </c>
       <c r="AH72">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AI72">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AJ72">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -3957,13 +3957,13 @@
         <v>23.02</v>
       </c>
       <c r="C23">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>4.1</v>
       </c>
       <c r="E23">
-        <v>58.7</v>
+        <v>44.1</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4642,13 +4642,13 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>16.22</v>
+        <v>2.2</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>16.22</v>
+        <v>2.2</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4735,10 +4735,10 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ28">
         <v>0</v>
@@ -4779,13 +4779,13 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="F29">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -4328,7 +4328,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.2</v>
+        <v>7.13</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>5.4</v>
+        <v>9.33</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>7.13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -4328,7 +4328,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7.13</v>
+        <v>3.33</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>9.33</v>
+        <v>5.53</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>7.13</v>
+        <v>3.33</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -4328,19 +4328,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.33</v>
+        <v>11.46</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>17.55</v>
       </c>
       <c r="C28" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3.66</v>
       </c>
       <c r="E28" t="n">
-        <v>5.53</v>
+        <v>36.87</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -4354,79 +4354,79 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH28" t="n">
         <v>1.1</v>
@@ -4438,28 +4438,28 @@
         <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO28" t="n">
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AR28" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
@@ -4636,82 +4636,82 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI30" t="n">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP30" t="n">
         <v>0</v>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
@@ -4777,109 +4777,109 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ31" t="n">
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AN31" t="n">
         <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AR31" t="n">
         <v>0</v>
@@ -4918,112 +4918,112 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AJ32" t="n">
         <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AR32" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -4610,19 +4610,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>36.64</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -10391,7 +10391,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -10403,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>3.63</v>
+        <v>4.17</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -4751,19 +4751,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>8.73</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>40.03</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -5174,10 +5174,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>5.83</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -5200,49 +5200,49 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -5177,7 +5177,7 @@
         <v>16.67</v>
       </c>
       <c r="B34" t="n">
-        <v>5.83</v>
+        <v>6.43</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>22.5</v>
+        <v>23.1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -5242,22 +5242,22 @@
         <v>0.7</v>
       </c>
       <c r="W34" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -700,58 +700,58 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
@@ -806,16 +806,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>7.77</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>21.97</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -892,28 +892,28 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AF3" t="n">
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>16.85</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>17.28</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.65</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>58.08</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -970,112 +970,112 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
@@ -1085,19 +1085,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>8.92</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1138,34 +1138,34 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -1508,19 +1508,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>10.58</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6.47</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10.03</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>27.88</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1558,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>8.93</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
@@ -1649,19 +1649,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>11.45</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>31.65</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1708,52 +1708,52 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>17.45</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>11.45</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1822,79 +1822,79 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -3764,19 +3764,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>13.53</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>14.55</v>
       </c>
       <c r="C24" t="n">
-        <v>14.6</v>
+        <v>15.4</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="E24" t="n">
-        <v>14.6</v>
+        <v>48.18</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -3814,67 +3814,67 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AJ24" t="n">
         <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AL24" t="n">
         <v>0</v>
@@ -3883,19 +3883,19 @@
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AO24" t="n">
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>12.15</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>12.15</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -5059,31 +5059,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>16.67</v>
       </c>
       <c r="B34" t="n">
-        <v>6.43</v>
+        <v>13.33</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>23.1</v>
+        <v>30</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -5257,55 +5257,55 @@
         <v>0.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.2</v>
+        <v>4.18</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>11.56</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AJ34" t="n">
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP34" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
@@ -5315,10 +5315,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -5401,10 +5401,10 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
@@ -5416,16 +5416,16 @@
         <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ35" t="n">
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AL35" t="n">
         <v>0</v>
@@ -5440,10 +5440,10 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AR35" t="n">
         <v>0</v>

--- a/files/resultados/2023/resultados_2023.xlsx
+++ b/files/resultados/2023/resultados_2023.xlsx
@@ -4672,7 +4672,7 @@
         <v>0.6</v>
       </c>
       <c r="U30" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="V30" t="n">
         <v>0.55</v>
@@ -4693,13 +4693,13 @@
         <v>0.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.01</v>
+        <v>3.28</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>1</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>8.199999999999999</v>
+        <v>13.1</v>
       </c>
       <c r="AH30" t="n">
         <v>1.1</v>
